--- a/public/imports/transacciones.xlsx
+++ b/public/imports/transacciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rivarca\public\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48A8C45-DA76-445A-B570-02880D66F5E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3224938-5AE5-4C3F-AF29-FF23033E73BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{6DAFAA24-A7FF-4C5D-A0E4-E0C1E8B3DF0D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="106">
   <si>
     <t>FECHA</t>
   </si>
@@ -84,9 +84,6 @@
     <t>ANDERSON BECERRA</t>
   </si>
   <si>
-    <t xml:space="preserve">A25 </t>
-  </si>
-  <si>
     <t xml:space="preserve">PAGO CUOTA </t>
   </si>
   <si>
@@ -273,9 +270,6 @@
     <t>ROSA LILIA Y YULIEPT DURAN</t>
   </si>
   <si>
-    <t xml:space="preserve">A27 </t>
-  </si>
-  <si>
     <t>NELSY SUAREZ</t>
   </si>
   <si>
@@ -346,6 +340,9 @@
   </si>
   <si>
     <t>PAGO CUOTA MES FEBRERO</t>
+  </si>
+  <si>
+    <t>A25</t>
   </si>
 </sst>
 </file>
@@ -381,8 +378,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5037C463-60B5-4FFD-8ECB-283D786A175E}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,8 +708,8 @@
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -726,10 +726,10 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -752,10 +752,10 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>12</v>
       </c>
       <c r="G2" t="s">
@@ -778,10 +778,10 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>23</v>
       </c>
       <c r="G3" t="s">
@@ -804,10 +804,10 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>23</v>
       </c>
       <c r="G4" t="s">
@@ -830,14 +830,14 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="1">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
-      </c>
-      <c r="F5">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
       </c>
       <c r="H5">
         <v>2083333</v>
@@ -856,10 +856,10 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>12</v>
       </c>
       <c r="G6" t="s">
@@ -877,19 +877,19 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>820000</v>
@@ -903,19 +903,19 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
+      <c r="F8" s="1">
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>1740000</v>
@@ -929,19 +929,19 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
       </c>
       <c r="H9">
         <v>1000000</v>
@@ -955,19 +955,19 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
       </c>
       <c r="H10">
         <v>1740000</v>
@@ -981,15 +981,15 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>6</v>
       </c>
       <c r="G11" t="s">
@@ -1007,19 +1007,19 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>36</v>
       </c>
       <c r="H12">
         <v>2000000</v>
@@ -1033,16 +1033,16 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
@@ -1059,16 +1059,16 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
@@ -1085,19 +1085,19 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
         <v>43</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15">
         <v>50000</v>
@@ -1111,19 +1111,19 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
         <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>47</v>
       </c>
       <c r="H16">
         <v>1000000</v>
@@ -1137,19 +1137,19 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="1">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
         <v>48</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>49</v>
       </c>
       <c r="H17">
         <v>2050000</v>
@@ -1163,19 +1163,19 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18">
         <v>6000000</v>
@@ -1189,19 +1189,19 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
         <v>43</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H19">
         <v>6000000</v>
@@ -1215,19 +1215,19 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
         <v>43</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H20">
         <v>6000000</v>
@@ -1241,19 +1241,19 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
         <v>43</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H21">
         <v>6000000</v>
@@ -1272,14 +1272,14 @@
       <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="1">
         <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H22">
         <v>2083333</v>
@@ -1293,19 +1293,19 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
         <v>43</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23">
         <v>6000000</v>
@@ -1319,19 +1319,19 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" t="s">
-        <v>31</v>
-      </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H24">
         <v>870000</v>
@@ -1345,16 +1345,16 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" t="s">
-        <v>53</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
@@ -1371,19 +1371,19 @@
         <v>17</v>
       </c>
       <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F26" t="s">
-        <v>23</v>
-      </c>
       <c r="G26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H26">
         <v>820000</v>
@@ -1397,16 +1397,16 @@
         <v>17</v>
       </c>
       <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s">
-        <v>56</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -1423,16 +1423,16 @@
         <v>17</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" t="s">
-        <v>28</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
@@ -1449,19 +1449,19 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
-      <c r="E29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29">
+      <c r="E29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="1">
         <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H29">
         <v>600000</v>
@@ -1475,19 +1475,19 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
       </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30">
+      <c r="E30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="1">
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H30">
         <v>450000</v>
@@ -1501,19 +1501,19 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
       </c>
-      <c r="E31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31">
+      <c r="E31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="1">
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H31">
         <v>600000</v>
@@ -1527,16 +1527,16 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F32" t="s">
-        <v>26</v>
       </c>
       <c r="G32" t="s">
         <v>12</v>
@@ -1553,19 +1553,19 @@
         <v>17</v>
       </c>
       <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>6</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H33">
         <v>2000000</v>
@@ -1579,15 +1579,15 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>23</v>
       </c>
       <c r="G34" t="s">
@@ -1605,19 +1605,19 @@
         <v>17</v>
       </c>
       <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H35">
         <v>2000000</v>
@@ -1631,16 +1631,16 @@
         <v>17</v>
       </c>
       <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" t="s">
-        <v>59</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
@@ -1657,19 +1657,19 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="1">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
         <v>46</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>47</v>
       </c>
       <c r="H37">
         <v>1000000</v>
@@ -1683,19 +1683,19 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="1">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
         <v>48</v>
-      </c>
-      <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s">
-        <v>49</v>
       </c>
       <c r="H38">
         <v>2050000</v>
@@ -1709,19 +1709,19 @@
         <v>17</v>
       </c>
       <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
         <v>43</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E39" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H39">
         <v>6000000</v>
@@ -1735,19 +1735,19 @@
         <v>17</v>
       </c>
       <c r="C40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="1">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
         <v>60</v>
-      </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>61</v>
       </c>
       <c r="H40">
         <v>13000000</v>
@@ -1761,19 +1761,19 @@
         <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H41">
         <v>1000000</v>
@@ -1787,16 +1787,16 @@
         <v>17</v>
       </c>
       <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" t="s">
-        <v>53</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
@@ -1813,19 +1813,19 @@
         <v>17</v>
       </c>
       <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="F43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F43" t="s">
-        <v>23</v>
-      </c>
       <c r="G43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H43">
         <v>820000</v>
@@ -1839,16 +1839,16 @@
         <v>17</v>
       </c>
       <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" t="s">
-        <v>28</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -1865,19 +1865,19 @@
         <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F45" t="s">
-        <v>56</v>
+      <c r="F45" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H45">
         <v>5000000</v>
@@ -1891,16 +1891,16 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" t="s">
-        <v>66</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
@@ -1917,19 +1917,19 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
         <v>10</v>
       </c>
-      <c r="E47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47">
+      <c r="E47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="1">
         <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H47">
         <v>1650000</v>
@@ -1948,14 +1948,14 @@
       <c r="D48" t="s">
         <v>10</v>
       </c>
-      <c r="E48" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48">
+      <c r="E48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="1">
         <v>24</v>
       </c>
       <c r="G48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H48">
         <v>2083333</v>
@@ -1969,19 +1969,19 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H49">
         <v>3000000</v>
@@ -2000,14 +2000,14 @@
       <c r="D50" t="s">
         <v>10</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H50">
         <v>2000000</v>
@@ -2021,19 +2021,19 @@
         <v>17</v>
       </c>
       <c r="C51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51">
+      <c r="F51" s="1">
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H51">
         <v>1000000</v>
@@ -2047,16 +2047,16 @@
         <v>17</v>
       </c>
       <c r="C52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" t="s">
-        <v>59</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
@@ -2073,19 +2073,19 @@
         <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H53">
         <v>1000000</v>
@@ -2099,19 +2099,19 @@
         <v>8</v>
       </c>
       <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" t="s">
-        <v>25</v>
-      </c>
-      <c r="F54" t="s">
-        <v>31</v>
-      </c>
       <c r="G54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H54">
         <v>870000</v>
@@ -2125,16 +2125,16 @@
         <v>8</v>
       </c>
       <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="F55" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F55" t="s">
-        <v>26</v>
       </c>
       <c r="G55" t="s">
         <v>12</v>
@@ -2151,16 +2151,16 @@
         <v>17</v>
       </c>
       <c r="C56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D56" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" t="s">
-        <v>41</v>
-      </c>
-      <c r="F56" t="s">
-        <v>59</v>
       </c>
       <c r="G56" t="s">
         <v>12</v>
@@ -2177,19 +2177,19 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="1">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
         <v>46</v>
-      </c>
-      <c r="D57" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" t="s">
-        <v>41</v>
-      </c>
-      <c r="F57">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>47</v>
       </c>
       <c r="H57">
         <v>1000000</v>
@@ -2203,19 +2203,19 @@
         <v>8</v>
       </c>
       <c r="C58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F58" s="1">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
         <v>48</v>
-      </c>
-      <c r="D58" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s">
-        <v>49</v>
       </c>
       <c r="H58">
         <v>2050000</v>
@@ -2229,19 +2229,19 @@
         <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59">
+        <v>43</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F59" s="1">
         <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H59">
         <v>1000000</v>
@@ -2255,19 +2255,19 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="1">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
         <v>70</v>
-      </c>
-      <c r="D60" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F60">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>71</v>
       </c>
       <c r="H60">
         <v>1700000</v>
@@ -2281,19 +2281,19 @@
         <v>17</v>
       </c>
       <c r="C61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="F61" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F61" t="s">
-        <v>74</v>
-      </c>
       <c r="G61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H61">
         <v>1000000</v>
@@ -2307,15 +2307,15 @@
         <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D62" t="s">
-        <v>44</v>
-      </c>
-      <c r="E62" t="s">
-        <v>38</v>
-      </c>
-      <c r="F62">
+        <v>43</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" s="1">
         <v>21</v>
       </c>
       <c r="G62" t="s">
@@ -2333,19 +2333,19 @@
         <v>17</v>
       </c>
       <c r="C63" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" t="s">
-        <v>73</v>
-      </c>
-      <c r="F63" t="s">
-        <v>77</v>
-      </c>
       <c r="G63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H63">
         <v>1000000</v>
@@ -2359,19 +2359,19 @@
         <v>17</v>
       </c>
       <c r="C64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" t="s">
         <v>43</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E64" t="s">
-        <v>45</v>
-      </c>
-      <c r="F64">
+      <c r="F64" s="1">
         <v>17</v>
       </c>
       <c r="G64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H64">
         <v>6000000</v>
@@ -2390,14 +2390,14 @@
       <c r="D65" t="s">
         <v>10</v>
       </c>
-      <c r="E65" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65">
+      <c r="E65" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F65" s="1">
         <v>24</v>
       </c>
       <c r="G65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H65">
         <v>2083333</v>
@@ -2411,19 +2411,19 @@
         <v>17</v>
       </c>
       <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D66" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="F66" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F66" t="s">
-        <v>23</v>
-      </c>
       <c r="G66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H66">
         <v>820000</v>
@@ -2437,16 +2437,16 @@
         <v>17</v>
       </c>
       <c r="C67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D67" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" t="s">
-        <v>41</v>
-      </c>
-      <c r="F67" t="s">
-        <v>53</v>
       </c>
       <c r="G67" t="s">
         <v>12</v>
@@ -2463,19 +2463,19 @@
         <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D68" t="s">
-        <v>44</v>
-      </c>
-      <c r="E68" t="s">
-        <v>41</v>
-      </c>
-      <c r="F68">
+        <v>43</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F68" s="1">
         <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H68">
         <v>2000000</v>
@@ -2489,16 +2489,16 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="F69" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F69" t="s">
-        <v>26</v>
       </c>
       <c r="G69" t="s">
         <v>12</v>
@@ -2515,16 +2515,16 @@
         <v>8</v>
       </c>
       <c r="C70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D70" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" t="s">
-        <v>25</v>
-      </c>
-      <c r="F70" t="s">
-        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>12</v>
@@ -2541,19 +2541,19 @@
         <v>17</v>
       </c>
       <c r="C71" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D71" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" t="s">
-        <v>34</v>
-      </c>
-      <c r="F71">
+      <c r="F71" s="1">
         <v>6</v>
       </c>
       <c r="G71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H71">
         <v>1000000</v>
@@ -2567,19 +2567,19 @@
         <v>8</v>
       </c>
       <c r="C72" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" t="s">
-        <v>34</v>
-      </c>
-      <c r="F72">
+      <c r="F72" s="1">
         <v>6</v>
       </c>
       <c r="G72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H72">
         <v>3000000</v>
@@ -2593,19 +2593,19 @@
         <v>17</v>
       </c>
       <c r="C73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D73" t="s">
         <v>10</v>
       </c>
-      <c r="E73" t="s">
-        <v>82</v>
-      </c>
-      <c r="F73" t="s">
-        <v>56</v>
+      <c r="E73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H73">
         <v>869600</v>
@@ -2619,19 +2619,19 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D74" t="s">
-        <v>44</v>
-      </c>
-      <c r="E74" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74">
+        <v>43</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="1">
         <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H74">
         <v>1650000</v>
@@ -2645,19 +2645,19 @@
         <v>17</v>
       </c>
       <c r="C75" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
       </c>
-      <c r="E75" t="s">
-        <v>38</v>
-      </c>
-      <c r="F75">
+      <c r="E75" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F75" s="1">
         <v>23</v>
       </c>
       <c r="G75" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H75">
         <v>1000000</v>
@@ -2671,19 +2671,19 @@
         <v>17</v>
       </c>
       <c r="C76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D76" t="s">
         <v>10</v>
       </c>
-      <c r="E76" t="s">
-        <v>45</v>
-      </c>
-      <c r="F76">
+      <c r="E76" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" s="1">
         <v>15</v>
       </c>
       <c r="G76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H76">
         <v>2000000</v>
@@ -2702,14 +2702,14 @@
       <c r="D77" t="s">
         <v>10</v>
       </c>
-      <c r="E77" t="s">
-        <v>82</v>
-      </c>
-      <c r="F77">
+      <c r="E77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="1">
         <v>23</v>
       </c>
       <c r="G77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H77">
         <v>2000000</v>
@@ -2723,19 +2723,19 @@
         <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D78" t="s">
         <v>10</v>
       </c>
-      <c r="E78" t="s">
-        <v>41</v>
-      </c>
-      <c r="F78" t="s">
-        <v>86</v>
+      <c r="E78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="G78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H78">
         <v>200000</v>
@@ -2749,19 +2749,19 @@
         <v>17</v>
       </c>
       <c r="C79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G79" t="s">
         <v>87</v>
-      </c>
-      <c r="D79" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" t="s">
-        <v>38</v>
-      </c>
-      <c r="F79" t="s">
-        <v>88</v>
-      </c>
-      <c r="G79" t="s">
-        <v>89</v>
       </c>
       <c r="H79">
         <v>1000000</v>
@@ -2775,19 +2775,19 @@
         <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D80" t="s">
-        <v>44</v>
-      </c>
-      <c r="E80" t="s">
-        <v>19</v>
-      </c>
-      <c r="F80" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H80">
         <v>1000000</v>
@@ -2801,19 +2801,19 @@
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D81" t="s">
         <v>10</v>
       </c>
-      <c r="E81" t="s">
-        <v>41</v>
-      </c>
-      <c r="F81" t="s">
-        <v>77</v>
+      <c r="E81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="G81" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H81">
         <v>2500000</v>
@@ -2827,16 +2827,16 @@
         <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D82" t="s">
-        <v>44</v>
-      </c>
-      <c r="E82" t="s">
-        <v>38</v>
-      </c>
-      <c r="F82" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G82" t="s">
         <v>12</v>
@@ -2853,19 +2853,19 @@
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D83" t="s">
         <v>10</v>
       </c>
-      <c r="E83" t="s">
-        <v>38</v>
-      </c>
-      <c r="F83">
+      <c r="E83" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F83" s="1">
         <v>17</v>
       </c>
       <c r="G83" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H83">
         <v>2050000</v>
@@ -2879,19 +2879,19 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D84" t="s">
         <v>10</v>
       </c>
-      <c r="E84" t="s">
-        <v>25</v>
-      </c>
-      <c r="F84">
+      <c r="E84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" s="1">
         <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H84">
         <v>1700000</v>
@@ -2905,15 +2905,15 @@
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D85" t="s">
         <v>10</v>
       </c>
-      <c r="E85" t="s">
-        <v>41</v>
-      </c>
-      <c r="F85">
+      <c r="E85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F85" s="1">
         <v>14</v>
       </c>
       <c r="G85" t="s">
@@ -2931,16 +2931,16 @@
         <v>8</v>
       </c>
       <c r="C86" t="s">
+        <v>64</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D86" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" t="s">
-        <v>38</v>
-      </c>
-      <c r="F86" t="s">
-        <v>66</v>
       </c>
       <c r="G86" t="s">
         <v>12</v>
@@ -2957,16 +2957,16 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D87" t="s">
         <v>10</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F87" t="s">
-        <v>42</v>
+      <c r="F87" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G87" t="s">
         <v>16</v>
@@ -2983,19 +2983,19 @@
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D88" t="s">
-        <v>44</v>
-      </c>
-      <c r="E88" t="s">
-        <v>22</v>
-      </c>
-      <c r="F88">
+        <v>43</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" s="1">
         <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H88">
         <v>1650000</v>
@@ -3009,19 +3009,19 @@
         <v>8</v>
       </c>
       <c r="C89" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G89" t="s">
         <v>97</v>
-      </c>
-      <c r="D89" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" t="s">
-        <v>38</v>
-      </c>
-      <c r="F89" t="s">
-        <v>98</v>
-      </c>
-      <c r="G89" t="s">
-        <v>99</v>
       </c>
       <c r="H89">
         <v>875000</v>
@@ -3035,19 +3035,19 @@
         <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D90" t="s">
+        <v>43</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E90" t="s">
-        <v>45</v>
-      </c>
-      <c r="F90">
+      <c r="F90" s="1">
         <v>17</v>
       </c>
       <c r="G90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H90">
         <v>4000000</v>
@@ -3061,19 +3061,19 @@
         <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D91" t="s">
         <v>10</v>
       </c>
-      <c r="E91" t="s">
-        <v>73</v>
-      </c>
-      <c r="F91">
+      <c r="E91" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F91" s="1">
         <v>17</v>
       </c>
       <c r="G91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H91">
         <v>2103450</v>
@@ -3087,19 +3087,19 @@
         <v>17</v>
       </c>
       <c r="C92" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D92" t="s">
         <v>10</v>
       </c>
-      <c r="E92" t="s">
-        <v>38</v>
-      </c>
-      <c r="F92" t="s">
-        <v>88</v>
+      <c r="E92" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="G92" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H92">
         <v>1000000</v>
@@ -3113,19 +3113,19 @@
         <v>17</v>
       </c>
       <c r="C93" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D93" t="s">
         <v>10</v>
       </c>
-      <c r="E93" t="s">
-        <v>45</v>
-      </c>
-      <c r="F93">
+      <c r="E93" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" s="1">
         <v>15</v>
       </c>
       <c r="G93" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H93">
         <v>2000000</v>
@@ -3139,19 +3139,19 @@
         <v>17</v>
       </c>
       <c r="C94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D94" t="s">
-        <v>44</v>
-      </c>
-      <c r="E94" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G94" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H94">
         <v>1000000</v>
@@ -3165,19 +3165,19 @@
         <v>17</v>
       </c>
       <c r="C95" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D95" t="s">
-        <v>44</v>
-      </c>
-      <c r="E95" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95">
+        <v>43</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F95" s="1">
         <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H95">
         <v>1000000</v>
@@ -3191,16 +3191,16 @@
         <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D96" t="s">
-        <v>44</v>
-      </c>
-      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F96" t="s">
-        <v>56</v>
+      <c r="F96" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G96" t="s">
         <v>12</v>
@@ -3217,19 +3217,19 @@
         <v>8</v>
       </c>
       <c r="C97" t="s">
+        <v>102</v>
+      </c>
+      <c r="D97" t="s">
+        <v>43</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G97" t="s">
         <v>104</v>
-      </c>
-      <c r="D97" t="s">
-        <v>44</v>
-      </c>
-      <c r="E97" t="s">
-        <v>19</v>
-      </c>
-      <c r="F97" t="s">
-        <v>105</v>
-      </c>
-      <c r="G97" t="s">
-        <v>106</v>
       </c>
       <c r="H97">
         <v>957039</v>
@@ -3237,5 +3237,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F7" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>